--- a/Admin/report_January.xlsx
+++ b/Admin/report_January.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
   <si>
     <t>Province/Area</t>
   </si>
@@ -68,7 +68,40 @@
     <t>ERIG</t>
   </si>
   <si>
+    <t>Alabang</t>
+  </si>
+  <si>
+    <t>Bagong Silang</t>
+  </si>
+  <si>
+    <t>Bayanan Annex</t>
+  </si>
+  <si>
+    <t>Bayanan Main</t>
+  </si>
+  <si>
     <t>Cupang</t>
+  </si>
+  <si>
+    <t>Poblacion</t>
+  </si>
+  <si>
+    <t>Putatan Annex</t>
+  </si>
+  <si>
+    <t>Putatan Main</t>
+  </si>
+  <si>
+    <t>Sitio Sto. Niño</t>
+  </si>
+  <si>
+    <t>Sucat</t>
+  </si>
+  <si>
+    <t>Tunasan</t>
+  </si>
+  <si>
+    <t>Victoria</t>
   </si>
 </sst>
 </file>
@@ -408,7 +441,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,16 +507,16 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -516,10 +549,593 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>2</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Admin/report_January.xlsx
+++ b/Admin/report_January.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>Province/Area</t>
   </si>
@@ -68,7 +68,10 @@
     <t>ERIG</t>
   </si>
   <si>
-    <t>Cupang</t>
+    <t>Poblacion</t>
+  </si>
+  <si>
+    <t>Southville</t>
   </si>
 </sst>
 </file>
@@ -408,7 +411,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,6 +522,59 @@
         <v>1</v>
       </c>
       <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
         <v>0</v>
       </c>
     </row>

--- a/Admin/report_January.xlsx
+++ b/Admin/report_January.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>Province/Area</t>
   </si>
@@ -68,10 +68,7 @@
     <t>ERIG</t>
   </si>
   <si>
-    <t>Poblacion</t>
-  </si>
-  <si>
-    <t>Southville</t>
+    <t>Victoria</t>
   </si>
 </sst>
 </file>
@@ -411,7 +408,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,14 +501,14 @@
         <v>0</v>
       </c>
       <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
         <v>1</v>
       </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
       <c r="N2">
         <v>0</v>
       </c>
@@ -519,62 +516,9 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
         <v>0</v>
       </c>
     </row>

--- a/Admin/report_January.xlsx
+++ b/Admin/report_January.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>Province/Area</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>ERIG</t>
-  </si>
-  <si>
-    <t>Victoria</t>
   </si>
 </sst>
 </file>
@@ -408,7 +405,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,59 +464,6 @@
       </c>
       <c r="Q1" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
